--- a/storage/public/excel/BieuMau_TH5.xlsx
+++ b/storage/public/excel/BieuMau_TH5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\quanlylichtrinh.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA38F07-CA9D-4363-8D3C-55048DE8E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824D375-B4C0-4513-999C-0B498EDBC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,12 +419,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -559,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,16 +582,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -605,11 +590,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,12 +650,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,22 +659,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1181,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:G26"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1215,44 +1197,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -1260,46 +1242,46 @@
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="35" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="35" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
@@ -1307,185 +1289,180 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>5</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="19" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="A1:B3"/>
@@ -1500,6 +1477,11 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/storage/public/excel/BieuMau_TH5.xlsx
+++ b/storage/public/excel/BieuMau_TH5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27723"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\quanlylichtrinh.vn\storage\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web\quanlylichtrinh.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824D375-B4C0-4513-999C-0B498EDBC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC8B92-75D9-4293-AB14-28BBD9090389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon thuc hanh" sheetId="7" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,48 +608,52 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,8 +663,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,23 +1184,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="24" t="s">
@@ -1209,7 +1213,7 @@
       </c>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
@@ -1218,7 +1222,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
@@ -1227,7 +1231,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1242,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1248,12 +1252,12 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,12 +1267,12 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1278,114 +1282,114 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>2</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="37"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
         <v>5</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="37"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -1409,7 +1413,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -1418,7 +1422,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -1427,7 +1431,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1438,33 +1442,31 @@
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="39"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="E22:G22"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="A9:A10"/>
@@ -1478,10 +1480,12 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E21:G21"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/storage/public/excel/BieuMau_TH5.xlsx
+++ b/storage/public/excel/BieuMau_TH5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27607"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web\quanlylichtrinh.vn\storage\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qllt.vlute.edu.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC8B92-75D9-4293-AB14-28BBD9090389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA32485A-775E-48D0-AAF0-1715A98E340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon thuc hanh" sheetId="7" r:id="rId1"/>
@@ -612,59 +612,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,13 +843,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485383</xdr:colOff>
+      <xdr:colOff>720707</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1265805</xdr:colOff>
+      <xdr:colOff>1501129</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>205036</xdr:rowOff>
     </xdr:to>
@@ -875,8 +875,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="858446" y="30350"/>
-          <a:ext cx="780422" cy="650936"/>
+          <a:off x="1090501" y="30350"/>
+          <a:ext cx="780422" cy="645333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1184,54 +1184,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="24" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1252,79 +1252,79 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="38" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="38" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>2</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>4</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>5</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,18 +1402,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -1422,7 +1422,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -1431,7 +1431,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1442,31 +1442,37 @@
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="A9:A10"/>
@@ -1480,12 +1486,6 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
